--- a/themes/hexo-theme-matery-master/source/games/life/data/specialthanks-dun.xlsx
+++ b/themes/hexo-theme-matery-master/source/games/life/data/specialthanks-dun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\lifeRestart\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\games\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F519C2-F962-4BEB-8966-C9AC2F9BE34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E375A69D-B569-4F90-8E3E-2FB134641F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="520">
   <si>
     <t>group</t>
   </si>
@@ -1876,6 +1876,305 @@
   </si>
   <si>
     <t>哦吼厉害了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shehao Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rogers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUDO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渤海湾胖老六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊特克利爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小狐狸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacenia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使是假的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巭孬乺嫑烎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博丽灵梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流云江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌鸦老舅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0605的前桌王同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十年了，王新慧，别来无恙？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悲哀快半拍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑诛天下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆宇图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALANYSNOWS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#800080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小蔬菜马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kusabier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一只沐雨鸭QwQ</t>
+  </si>
+  <si>
+    <t>张静静今天吃饱了吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人生如戏，戏如人生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱俊杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#930093</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妄人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧濑不是木来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太白山野猪之光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰杰子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落叶随风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄焖鸡米米饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sanny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醴樂懿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均摘星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张徐涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buruol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃不饱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚尼玛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行者汤恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒惰的肥猿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库库林白夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小勘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSSamuel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>『H』</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法少女立花响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凞咥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#7FFFFD4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东京八百万萝莉总教头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门后有只猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeoLoki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆因堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闲鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泊彧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希希希土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好真实这个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么时候修成正果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ethan.lang@wisdomhashrate.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京团队诚聘java、区块链相关工程师，加入我们吧！你的人生何须重开？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艳阳兄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ffff00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七茗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FFB6C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磕学家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2236,10 +2535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D408"/>
+  <dimension ref="A1:D476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="C406" sqref="C406"/>
+    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="C484" sqref="C484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5641,13 +5940,582 @@
         <v>444</v>
       </c>
     </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" s="1">
+        <v>2</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" s="1">
+        <v>2</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" s="1">
+        <v>2</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
+        <v>2</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
+        <v>2</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <v>2</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <v>2</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <v>2</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <v>2</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>2</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <v>2</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>2</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <v>2</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422" s="1">
+        <v>2</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <v>1</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <v>2</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <v>2</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <v>2</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <v>2</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <v>2</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>2</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <v>2</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <v>2</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <v>2</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <v>2</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <v>2</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <v>1</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <v>2</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D436" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <v>2</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <v>2</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <v>2</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440" s="1">
+        <v>2</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441" s="1">
+        <v>2</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <v>2</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443" s="1">
+        <v>2</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
+        <v>2</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
+        <v>2</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446" s="1">
+        <v>2</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447" s="1">
+        <v>2</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448" s="1">
+        <v>2</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <v>2</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
+        <v>2</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
+        <v>2</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <v>2</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453" s="1">
+        <v>2</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454" s="1">
+        <v>2</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455" s="1">
+        <v>2</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456" s="1">
+        <v>2</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457" s="1">
+        <v>2</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458" s="1">
+        <v>2</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459" s="1">
+        <v>2</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460" s="1">
+        <v>2</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461" s="1">
+        <v>2</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462" s="1">
+        <v>2</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463" s="1">
+        <v>2</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464" s="1">
+        <v>2</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465" s="1">
+        <v>2</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466" s="1">
+        <v>2</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467" s="1">
+        <v>2</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468" s="1">
+        <v>2</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469" s="1">
+        <v>2</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470" s="1">
+        <v>2</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471" s="1">
+        <v>2</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472" s="1">
+        <v>1</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473" s="1">
+        <v>2</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D473" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474" s="1">
+        <v>2</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475" s="1">
+        <v>2</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D475" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476" s="1">
+        <v>2</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B34" r:id="rId1" xr:uid="{EFEB6B61-6435-4392-99B1-CAF9DD6A437F}"/>
     <hyperlink ref="B265" r:id="rId2" xr:uid="{CB2CA6D1-AD70-468E-B7D4-1B07E6E4967B}"/>
+    <hyperlink ref="B472" r:id="rId3" xr:uid="{061A2415-2D80-421F-9F71-B6F0DA435A5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>